--- a/finetuning/it_datasets/qa_dataset/qa_it_takelsa_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_takelsa_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -671,14 +676,46 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you happen to be in takelsa and are looking for a wonderful experience, visit Port Des Princes Takelsa **g' located at VMJ9+F9P Port Des Princes Takelsa **g', Port Des Princes, Mornaguia. 
-This highly-rated destination is ideal for those who love Agence de visites touristiques and offers a range of Agence de visites touristiques to pick from. 
-With a remarkable rating of 4, it is a must-visit spot. It's open 24 hours a day, 7 days a week. For further details, check out their website at http://www.facebook.com/PortDePrinceTakelsa or call them at 21 425 578.</t>
+          <t>Port Des Princes Takelsa **g' is a travel agency located in Port Des Princes, Mornaguia. It offers a 24/7 service to satisfy your traveling needs and desires. The agency is well rated with a 4 out of 5 rating. The main activity of the agency is sightseeing. If you are looking for a travel agency in takelsa, Port Des Princes Takelsa **g' is a good choice.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated destination in Port Des Princes Takelsa that specializes in Agence de visites touristiques and offers a 24/7 availability?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant streets of Port Des Princes Takelsa **g'.
+Mid-Morning: Visit the historic Mornaguia Fort for stunning panoramic views.
+Midday: Savor the local cuisine at a traditional restaurant, "Chez Henri".
+Afternoon: Relax and rejuvenate with a massage at the serene "Spa des Princes".
+Evening: Attend a cultural music and dance performance at the "Théâtre de Takelsa".
+Night: Take a leisurely stroll along the picturesque port promenade, admiring the twinkling lights.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Port Des Princes Takelsa **g' is a travel agency located in Port Des Princes, Mornaguia. It offers a 24/7 service to satisfy your traveling needs and desires. The agency is well rated with a 4 out of 5 rating. The main activity of the agency is sightseeing. If you are looking for a travel agency in takelsa, Port Des Princes Takelsa **g' is a good choice.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
